--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correounivalleeduco-my.sharepoint.com/personal/cristian_paz_correounivalle_edu_co/Documents/universidad/Series de Tiempo y Pronostico/Trabajo Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correounivalleeduco-my.sharepoint.com/personal/cristian_paz_correounivalle_edu_co/Documents/universidad/Series de Tiempo y Pronostico/Trabajo Final/STPFINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BB32FF1E-183E-4051-A8FD-CE0531B91764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="14_{BB32FF1E-183E-4051-A8FD-CE0531B91764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9D82F75-DC50-4151-BE03-5550DDF346A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="4" r:id="rId1"/>
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>año</t>
   </si>
   <si>
     <t>Inflacion</t>
   </si>
+  <si>
+    <t>decadas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,496 +839,676 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.3501538964216593</v>
       </c>
       <c r="B2" s="1">
         <v>1961</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2446347120014423</v>
       </c>
       <c r="B3" s="1">
         <v>1962</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.0883860113683568</v>
       </c>
       <c r="B4" s="1">
         <v>1963</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5039396790116086</v>
       </c>
       <c r="B5" s="1">
         <v>1964</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.919825811247506</v>
       </c>
       <c r="B6" s="1">
         <v>1965</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.8987785346832595</v>
       </c>
       <c r="B7" s="1">
         <v>1966</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1512793655543447</v>
       </c>
       <c r="B8" s="1">
         <v>1967</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.3671882405368194</v>
       </c>
       <c r="B9" s="1">
         <v>1968</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.9584884495750998</v>
       </c>
       <c r="B10" s="1">
         <v>1969</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.5352848908605949</v>
       </c>
       <c r="B11" s="1">
         <v>1970</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.0691675023222302</v>
       </c>
       <c r="B12" s="1">
         <v>1971</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.3227514316363198</v>
       </c>
       <c r="B13" s="1">
         <v>1972</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.4798807180808353</v>
       </c>
       <c r="B14" s="1">
         <v>1973</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9986946143706632</v>
       </c>
       <c r="B15" s="1">
         <v>1974</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.2626120584300651</v>
       </c>
       <c r="B16" s="1">
         <v>1975</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5.5033864056986488</v>
       </c>
       <c r="B17" s="1">
         <v>1976</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.213366676763826</v>
       </c>
       <c r="B18" s="1">
         <v>1977</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.033830777079757</v>
       </c>
       <c r="B19" s="1">
         <v>1978</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.296557091030536</v>
       </c>
       <c r="B20" s="1">
         <v>1979</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.0330769022880446</v>
       </c>
       <c r="B21" s="1">
         <v>1980</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9.4621448294032433</v>
       </c>
       <c r="B22" s="1">
         <v>1981</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.1782674988319286</v>
       </c>
       <c r="B23" s="1">
         <v>1982</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.9167871960947167</v>
       </c>
       <c r="B24" s="1">
         <v>1983</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.607705412140632</v>
       </c>
       <c r="B25" s="1">
         <v>1984</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.1624451611889697</v>
       </c>
       <c r="B26" s="1">
         <v>1985</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.0139014905802952</v>
       </c>
       <c r="B27" s="1">
         <v>1986</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.4728100090802911</v>
       </c>
       <c r="B28" s="1">
         <v>1987</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.5274214576704708</v>
       </c>
       <c r="B29" s="1">
         <v>1988</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.9203481851531876</v>
       </c>
       <c r="B30" s="1">
         <v>1989</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.7433297395030678</v>
       </c>
       <c r="B31" s="1">
         <v>1990</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.381761557523248</v>
       </c>
       <c r="B32" s="1">
         <v>1991</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.278910322009537</v>
       </c>
       <c r="B33" s="1">
         <v>1992</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.3703395922872801</v>
       </c>
       <c r="B34" s="1">
         <v>1993</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.1354237103164309</v>
       </c>
       <c r="B35" s="1">
         <v>1994</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.0969007285313239</v>
       </c>
       <c r="B36" s="1">
         <v>1995</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.8309678690951756</v>
       </c>
       <c r="B37" s="1">
         <v>1996</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1.724431313947278</v>
       </c>
       <c r="B38" s="1">
         <v>1997</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1.1255331041742096</v>
       </c>
       <c r="B39" s="1">
         <v>1998</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1.4092327564831066</v>
       </c>
       <c r="B40" s="1">
         <v>1999</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.2655476704801316</v>
       </c>
       <c r="B41" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.2529523587807319</v>
       </c>
       <c r="B42" s="1">
         <v>2001</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.5585313890788655</v>
       </c>
       <c r="B43" s="1">
         <v>2002</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.9735993168761752</v>
       </c>
       <c r="B44" s="1">
         <v>2003</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.6844080415182532</v>
       </c>
       <c r="B45" s="1">
         <v>2004</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3.1358240667201329</v>
       </c>
       <c r="B46" s="1">
         <v>2005</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.0855829316345051</v>
       </c>
       <c r="B47" s="1">
         <v>2006</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.702526568861515</v>
       </c>
       <c r="B48" s="1">
         <v>2007</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1.9179329778406213</v>
       </c>
       <c r="B49" s="1">
         <v>2008</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.6409547326727818</v>
       </c>
       <c r="B50" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.2017916253887222</v>
       </c>
       <c r="B51" s="1">
         <v>2010</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.0777138203681034</v>
       </c>
       <c r="B52" s="1">
         <v>2011</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.8705955293703909</v>
       </c>
       <c r="B53" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.7509497788179118</v>
       </c>
       <c r="B54" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.8698913722099348</v>
       </c>
       <c r="B55" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.000541632911407</v>
       </c>
       <c r="B56" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.002235480218161</v>
       </c>
       <c r="B57" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.8978438066103394</v>
       </c>
       <c r="B58" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.389010893019389</v>
       </c>
       <c r="B59" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.788715507354425</v>
       </c>
       <c r="B60" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.2052346857265519</v>
       </c>
@@ -1333,7 +1516,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.1553697336921971</v>
       </c>
